--- a/Machine Learning/ml_final_data_table.xlsx
+++ b/Machine Learning/ml_final_data_table.xlsx
@@ -5,7 +5,7 @@
   <workbookPr defaultThemeVersion="153222"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ran\Documents\School\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Ran\workspace\Machine Learning\"/>
     </mc:Choice>
   </mc:AlternateContent>
   <bookViews>
@@ -24,7 +24,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="92">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="173" uniqueCount="92">
   <si>
     <t>Algorithm</t>
   </si>
@@ -620,8 +620,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J36"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A10" workbookViewId="0">
-      <selection activeCell="I34" sqref="I34"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="F7" sqref="F7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -666,6 +666,9 @@
       <c r="D3" s="1" t="s">
         <v>18</v>
       </c>
+      <c r="E3" s="1" t="s">
+        <v>52</v>
+      </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B4" t="s">
@@ -677,6 +680,9 @@
       <c r="D4" s="1" t="s">
         <v>10</v>
       </c>
+      <c r="E4" s="1" t="s">
+        <v>56</v>
+      </c>
     </row>
     <row r="5" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B5" t="s">
@@ -688,6 +694,9 @@
       <c r="D5" s="1" t="s">
         <v>25</v>
       </c>
+      <c r="E5" s="1" t="s">
+        <v>76</v>
+      </c>
     </row>
     <row r="6" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B6" t="s">
@@ -699,6 +708,9 @@
       <c r="D6" s="1" t="s">
         <v>13</v>
       </c>
+      <c r="E6" s="1" t="s">
+        <v>78</v>
+      </c>
     </row>
     <row r="7" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B7" t="s">
@@ -710,6 +722,9 @@
       <c r="D7" s="1" t="s">
         <v>19</v>
       </c>
+      <c r="E7" s="1" t="s">
+        <v>42</v>
+      </c>
     </row>
     <row r="8" spans="1:10" x14ac:dyDescent="0.25">
       <c r="B8" t="s">
@@ -720,6 +735,9 @@
       </c>
       <c r="D8" s="1" t="s">
         <v>17</v>
+      </c>
+      <c r="E8" s="1" t="s">
+        <v>85</v>
       </c>
     </row>
     <row r="10" spans="1:10" x14ac:dyDescent="0.25">
